--- a/data/trans_camb/P15_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_1-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,44</t>
+          <t>0,0; 9,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,24</t>
+          <t>0,0; 9,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,33</t>
+          <t>0,0; 10,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,08</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,16</t>
+          <t>0,75; 7,78</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>10,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,65</t>
+          <t>-2,14; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,62</t>
+          <t>-0,2; 6,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 15,58</t>
+          <t>5,63; 18,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,22</t>
+          <t>-2,68; 0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,57</t>
+          <t>-0,01; 6,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,8</t>
+          <t>6,08; 16,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,71</t>
+          <t>-1,71; 0,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,64</t>
+          <t>0,53; 5,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 12,33</t>
+          <t>7,42; 15,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>625,98%</t>
+          <t>360,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2735,88%</t>
+          <t>1690,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,36%</t>
+          <t>-53,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>290,66%</t>
+          <t>247,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>837,33%</t>
+          <t>1008,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>-36,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>373,4%</t>
+          <t>288,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1336,81%</t>
+          <t>1262,56%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; —</t>
+          <t>-56,35; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>192,02; 4389,74</t>
+          <t>158,5; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 1666,35</t>
+          <t>-2,91; 1662,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>420,24; 5077,53</t>
+          <t>347,01; 4668,06</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>8,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,48</t>
+          <t>-2,55; 5,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,34</t>
+          <t>-2,2; 6,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,71</t>
+          <t>3,14; 15,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,63</t>
+          <t>-2,3; 1,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 6,41</t>
+          <t>1,35; 9,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 11,12</t>
+          <t>3,46; 13,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,85</t>
+          <t>-1,44; 3,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,07</t>
+          <t>0,79; 6,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,94</t>
+          <t>4,8; 12,27</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>187,81%</t>
+          <t>103,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>732,9%</t>
+          <t>476,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>300,35%</t>
+          <t>403,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>644,13%</t>
+          <t>690,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>245,35%</t>
+          <t>229,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>689,52%</t>
+          <t>568,82%</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,05; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>111,27; —</t>
+          <t>-10,57; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,34 +1243,34 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 1650,85</t>
+          <t>-10,24; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>108,4; 2711,63</t>
+          <t>71,93; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 523,28</t>
+          <t>-72,07; 678,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,38; 1002,34</t>
+          <t>-8,97; 1316,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>222,4; 2256,82</t>
+          <t>128,53; 2534,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>328,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1455,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>346,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>813,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>338,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1062,82%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1444,53 +1444,277 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1866,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>376,06; 6066,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 241,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>90,52; 1122,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>338,05; 2229,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,59; 203,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>115,18; 963,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>536,68; 2542,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9,23</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 2,12</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 4,42</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 13,41</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 1,0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 5,7</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 11,4</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 1,15</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 4,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 11,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>45,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>182,21%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>888,96%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-11,72%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>346,81%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>886,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>264,29%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>890,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-81,64; 559,76</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-47,46; 1034,35</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>216,64; 3565,67</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-88,36; 379,41</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>37,8; 1647,12</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>259,05; 3767,0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-58,57; 232,47</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>56,95; 749,16</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>367,53; 2200,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
